--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2209486-3FA6-4220-83FE-D6D41C0B1E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -271,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -530,6 +532,15 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -541,21 +552,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,6 +648,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -681,6 +700,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,29 +892,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="4" max="4" width="12.36328125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
@@ -889,9 +925,9 @@
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
@@ -902,11 +938,11 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
@@ -915,51 +951,51 @@
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="7"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1001,32 +1037,32 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <f t="shared" ref="A11:A16" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -1041,7 +1077,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1052,7 +1088,7 @@
       <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -1061,7 +1097,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1079,7 +1115,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1097,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1113,7 +1149,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1131,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
     </row>
   </sheetData>
@@ -1151,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1159,15 +1195,15 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxPrinter.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2209486-3FA6-4220-83FE-D6D41C0B1E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20EAA2A-84CE-46E4-8DF7-D2E0C9201E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -268,6 +258,43 @@
   <si>
     <t>檔案編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceEnv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>產表環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O:Online環境
+D:Day環境
+M:Month環境
+H:History環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-25 Wei 新增欄位
+from Lai : 各環境產表都寫回Online,
+但是各環境在LC009查詢時,只能查到各自環境產製的報表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StanIp = ,AND SourceEnv =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByStanIpAndSourceEnv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,7 +388,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,11 +480,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -460,9 +493,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,10 +502,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,9 +514,6 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -511,10 +538,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -529,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +564,18 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -573,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -613,9 +649,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,26 +684,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,26 +719,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -893,282 +895,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="4"/>
+    <col min="4" max="4" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="62.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <f t="shared" ref="A11:A16" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1188,33 +1210,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1222,6 +1244,17 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
